--- a/data_excel/210.xlsx
+++ b/data_excel/210.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>小傑</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,7 +597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -613,7 +617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -626,14 +630,14 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -644,12 +648,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -718,7 +722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -729,12 +733,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
